--- a/results/mp/logistic/corona/confidence/84/desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,118 +46,127 @@
     <t>death</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>hand</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>thank</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
@@ -166,121 +175,124 @@
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
+    <t>gt</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -638,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -778,16 +790,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9722222222222222</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -807,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>0.9666666666666667</v>
@@ -857,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8527397260273972</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C6">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
@@ -907,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8378378378378378</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,16 +990,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1007,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7391304347826086</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.9302325581395349</v>
+        <v>0.9164490861618799</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,31 +1187,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L12">
+        <v>54</v>
+      </c>
+      <c r="M12">
+        <v>54</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="L12">
-        <v>24</v>
-      </c>
-      <c r="M12">
-        <v>24</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.9138381201044387</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L13">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1278,16 +1290,16 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.9090909090909091</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.6243386243386243</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,31 +1337,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>0.90625</v>
+      </c>
+      <c r="L15">
+        <v>116</v>
+      </c>
+      <c r="M15">
+        <v>116</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15">
-        <v>0.9084507042253521</v>
-      </c>
-      <c r="L15">
-        <v>129</v>
-      </c>
-      <c r="M15">
-        <v>129</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6153846153846154</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.8984375</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5502645502645502</v>
+        <v>0.5406976744186046</v>
       </c>
       <c r="C17">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="D17">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>85</v>
+        <v>237</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.8962264150943396</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4509803921568628</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.8947368421052632</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4282945736434108</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C19">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3733333333333334</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.8928571428571429</v>
+        <v>0.88125</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3559322033898305</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.88125</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L21">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="M21">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1055555555555556</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>322</v>
+        <v>117</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.8658536585365854</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L22">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,47 +1711,95 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>318</v>
+      </c>
       <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="L23">
+        <v>70</v>
+      </c>
+      <c r="M23">
+        <v>70</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>236</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="L24">
         <v>49</v>
       </c>
-      <c r="K23">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L23">
-        <v>50</v>
-      </c>
-      <c r="M23">
-        <v>50</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L24">
-        <v>31</v>
-      </c>
       <c r="M24">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1751,12 +1811,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25">
         <v>0.8214285714285714</v>
@@ -1782,16 +1842,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.8148148148148148</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1803,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.8125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1829,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.8095238095238095</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1855,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K29">
         <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1881,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1907,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1933,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.775</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1964,16 +2024,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.7714285714285715</v>
+        <v>0.74</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1985,21 +2045,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.7692307692307693</v>
+        <v>0.7382352941176471</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2011,21 +2071,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.7647058823529411</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2037,21 +2097,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.7441176470588236</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="L36">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="M36">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2063,21 +2123,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.7423728813559322</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L37">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2089,21 +2149,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.7407407407407407</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2115,21 +2175,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2141,21 +2201,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.7196652719665272</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L40">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2167,21 +2227,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.6808510638297872</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L41">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M41">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2193,21 +2253,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.6785714285714286</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2219,21 +2279,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.676923076923077</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L43">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2245,21 +2305,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2271,21 +2331,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.651685393258427</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L45">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2297,21 +2357,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.6428571428571429</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M46">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2323,21 +2383,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2349,21 +2409,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.6296296296296297</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2375,12 +2435,12 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K49">
         <v>0.6190476190476191</v>
@@ -2406,10 +2466,10 @@
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.6086956521739131</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L50">
         <v>14</v>
@@ -2427,21 +2487,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.5833333333333334</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2453,21 +2513,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.5769230769230769</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2479,21 +2539,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.5416666666666666</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2505,12 +2565,12 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K54">
         <v>0.5416666666666666</v>
@@ -2536,16 +2596,16 @@
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.5238095238095238</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2557,21 +2617,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.5161290322580645</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2583,21 +2643,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.5098039215686274</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2609,21 +2669,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.4931506849315068</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L58">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2635,21 +2695,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.4871794871794872</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L59">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M59">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2661,21 +2721,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K60">
-        <v>0.4705882352941176</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2687,21 +2747,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K61">
-        <v>0.4222222222222222</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2713,12 +2773,12 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K62">
         <v>0.2203389830508475</v>
@@ -2740,6 +2800,58 @@
       </c>
       <c r="Q62">
         <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K63">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="L63">
+        <v>15</v>
+      </c>
+      <c r="M63">
+        <v>15</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64">
+        <v>0.004870738104158861</v>
+      </c>
+      <c r="L64">
+        <v>13</v>
+      </c>
+      <c r="M64">
+        <v>17</v>
+      </c>
+      <c r="N64">
+        <v>0.76</v>
+      </c>
+      <c r="O64">
+        <v>0.24</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>2656</v>
       </c>
     </row>
   </sheetData>
